--- a/HLS_man/COP20/COP20_man_republicofkorea.xlsx
+++ b/HLS_man/COP20/COP20_man_republicofkorea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B58474A-9E53-40A6-BE34-4748B2C0D5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4F13EC-0E19-4D10-8AE9-F70B7EA2A4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>COP20_republicofkorea</t>
   </si>
@@ -201,84 +201,96 @@
     <t>yes</t>
   </si>
   <si>
+    <t>emissions</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>sufficientarian</t>
+  </si>
+  <si>
+    <t>libertarian</t>
+  </si>
+  <si>
+    <t>financial resources</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>prioritarian</t>
+  </si>
+  <si>
+    <t>moral responsibility</t>
+  </si>
+  <si>
+    <t>egalitarian</t>
+  </si>
+  <si>
+    <t>policy target</t>
+  </si>
+  <si>
+    <t>nearby future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy target of emissions. Unclear how this target is to be reached or what should happen if it is reached, but reaching this target is presented as 'sufficient' effort. </t>
+  </si>
+  <si>
+    <t>other(emissions trading)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This national policy is focussed on implementing a trading system, leaving the mitigation actions to a free market economic system without additional intervention from the government. . </t>
+  </si>
+  <si>
+    <t>other(GCF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">financial contribution ot GCF, a prioritarian mechanism. </t>
+  </si>
+  <si>
+    <t>measures</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>referring to a coordinated response and that actions by a small group of countries will not be sufficient. This coordination referts to efforts from all, thus egalitarian</t>
+  </si>
+  <si>
+    <t>moral responsibility, new UNFCCC policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need several key ingredients to deliver success in this : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+First, our conversation on the new agreement should leave no one behind .</t>
+  </si>
+  <si>
+    <t>measures, other(consequences)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaving behind indicates that there is a threshold under which no one should be. This is related to the sufficientarian principle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">global participation refers to the mention of 'everyone has to do something'. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
 Last but not least, t he agreement should also lay solid foundation for transparency and 
 accountability with a clear set of rules .
- This is crucial to generate confidence on durability and credibility of the new system, not just 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is crucial to generate confidence on durability and credibility of the new system, not just 
 among parties, but for the “outside world” as well.</t>
   </si>
   <si>
-    <t>emissions</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>sufficientarian</t>
-  </si>
-  <si>
-    <t>libertarian</t>
-  </si>
-  <si>
-    <t>financial resources</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>prioritarian</t>
-  </si>
-  <si>
-    <t>moral responsibility</t>
-  </si>
-  <si>
-    <t>egalitarian</t>
-  </si>
-  <si>
-    <t>policy target</t>
-  </si>
-  <si>
-    <t>nearby future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy target of emissions. Unclear how this target is to be reached or what should happen if it is reached, but reaching this target is presented as 'sufficient' effort. </t>
-  </si>
-  <si>
-    <t>other(emissions trading)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This national policy is focussed on implementing a trading system, leaving the mitigation actions to a free market economic system without additional intervention from the government. . </t>
-  </si>
-  <si>
-    <t>other(GCF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">financial contribution ot GCF, a prioritarian mechanism. </t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>n.a.</t>
-  </si>
-  <si>
-    <t>referring to a coordinated response and that actions by a small group of countries will not be sufficient. This coordination referts to efforts from all, thus egalitarian</t>
-  </si>
-  <si>
-    <t>moral responsibility, new UNFCCC policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We need several key ingredients to deliver success in this : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-First, our conversation on the new agreement should leave no one behind .</t>
-  </si>
-  <si>
-    <t>measures, other(consequences)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaving behind indicates that there is a threshold under which no one should be. This is related to the sufficientarian principle. </t>
+    <t>other(accountability), new UNFCCC policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call for a clear set of rules that are defined as a foundation of the agreement. Adhering to a specific level is defined as sufficientarian. </t>
   </si>
 </sst>
 </file>
@@ -648,11 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,22 +749,22 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -771,22 +783,22 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -805,22 +817,22 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -839,22 +851,22 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -889,9 +901,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -899,28 +911,28 @@
     </row>
     <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
         <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -936,7 +948,25 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -963,43 +993,69 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>

--- a/HLS_man/COP20/COP20_man_republicofkorea.xlsx
+++ b/HLS_man/COP20/COP20_man_republicofkorea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4F13EC-0E19-4D10-8AE9-F70B7EA2A4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586B407-1774-4E71-A396-43030003176C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>COP20_republicofkorea</t>
   </si>
@@ -201,54 +201,21 @@
     <t>yes</t>
   </si>
   <si>
-    <t>emissions</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
     <t>sufficientarian</t>
   </si>
   <si>
-    <t>libertarian</t>
-  </si>
-  <si>
-    <t>financial resources</t>
-  </si>
-  <si>
     <t>global</t>
   </si>
   <si>
-    <t>prioritarian</t>
-  </si>
-  <si>
     <t>moral responsibility</t>
   </si>
   <si>
     <t>egalitarian</t>
   </si>
   <si>
-    <t>policy target</t>
-  </si>
-  <si>
     <t>nearby future</t>
   </si>
   <si>
-    <t xml:space="preserve">policy target of emissions. Unclear how this target is to be reached or what should happen if it is reached, but reaching this target is presented as 'sufficient' effort. </t>
-  </si>
-  <si>
-    <t>other(emissions trading)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This national policy is focussed on implementing a trading system, leaving the mitigation actions to a free market economic system without additional intervention from the government. . </t>
-  </si>
-  <si>
-    <t>other(GCF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">financial contribution ot GCF, a prioritarian mechanism. </t>
-  </si>
-  <si>
     <t>measures</t>
   </si>
   <si>
@@ -268,13 +235,7 @@
 First, our conversation on the new agreement should leave no one behind .</t>
   </si>
   <si>
-    <t>measures, other(consequences)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leaving behind indicates that there is a threshold under which no one should be. This is related to the sufficientarian principle. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">global participation refers to the mention of 'everyone has to do something'. </t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -287,10 +248,46 @@
 among parties, but for the “outside world” as well.</t>
   </si>
   <si>
-    <t>other(accountability), new UNFCCC policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">call for a clear set of rules that are defined as a foundation of the agreement. Adhering to a specific level is defined as sufficientarian. </t>
+    <t>present</t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t>Prescribing short term action. No specific distribution.</t>
+  </si>
+  <si>
+    <t>new UNFCCC policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referring to the need for a global agreement, indicating the participation of all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intend of the need for accellerated implementation. No specific distribution. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">highlighting the need for relevance to all. </t>
+  </si>
+  <si>
+    <t>call for a clear set of rules that are defined as a foundation of the agreement. No preferred distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression of the need for durability and credibility among all, also outside the conference. </t>
+  </si>
+  <si>
+    <t>other(people vs policimakers)</t>
+  </si>
+  <si>
+    <t>new UNFCCC policy, durability, credibility</t>
+  </si>
+  <si>
+    <t>accountability, new UNFCCC policy</t>
+  </si>
+  <si>
+    <t>implementation, new UNFCCC policy</t>
+  </si>
+  <si>
+    <t>action</t>
   </si>
 </sst>
 </file>
@@ -663,16 +660,16 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -709,7 +706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -717,7 +714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -725,7 +722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -733,41 +730,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -775,33 +772,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -809,33 +788,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -843,7 +804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -851,33 +812,51 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -885,7 +864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -893,49 +872,67 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -943,41 +940,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -985,7 +982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -993,41 +990,59 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1035,7 +1050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -1043,7 +1058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>

--- a/HLS_man/COP20/COP20_man_republicofkorea.xlsx
+++ b/HLS_man/COP20/COP20_man_republicofkorea.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586B407-1774-4E71-A396-43030003176C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C70BFE-D4B1-486A-9D4B-DCB1844AE31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>COP20_republicofkorea</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -195,37 +189,16 @@
 Thank you.</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>sufficientarian</t>
   </si>
   <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>moral responsibility</t>
-  </si>
-  <si>
     <t>egalitarian</t>
   </si>
   <si>
-    <t>nearby future</t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
     <t>referring to a coordinated response and that actions by a small group of countries will not be sufficient. This coordination referts to efforts from all, thus egalitarian</t>
-  </si>
-  <si>
-    <t>moral responsibility, new UNFCCC policy</t>
   </si>
   <si>
     <t xml:space="preserve">We need several key ingredients to deliver success in this : </t>
@@ -248,46 +221,46 @@
 among parties, but for the “outside world” as well.</t>
   </si>
   <si>
-    <t>present</t>
-  </si>
-  <si>
     <t>general normative statement</t>
   </si>
   <si>
-    <t>Prescribing short term action. No specific distribution.</t>
-  </si>
-  <si>
     <t>new UNFCCC policy</t>
   </si>
   <si>
-    <t xml:space="preserve">referring to the need for a global agreement, indicating the participation of all. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intend of the need for accellerated implementation. No specific distribution. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">highlighting the need for relevance to all. </t>
-  </si>
-  <si>
-    <t>call for a clear set of rules that are defined as a foundation of the agreement. No preferred distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression of the need for durability and credibility among all, also outside the conference. </t>
-  </si>
-  <si>
-    <t>other(people vs policimakers)</t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, durability, credibility</t>
-  </si>
-  <si>
-    <t>accountability, new UNFCCC policy</t>
-  </si>
-  <si>
-    <t>implementation, new UNFCCC policy</t>
-  </si>
-  <si>
-    <t>action</t>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Prescribing short term action. No specific distribution or motivation.</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value judgement referring to the need for a global agreement, no specific distribution ro motivation highlighted. </t>
+  </si>
+  <si>
+    <t>needs based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">highlighting the need for relevance to all from an egalitarian motivation that all should be accounted for. No specific distribution highlighted. </t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call for a clear set of rules that are defined as a foundation of the agreement. No preferred distribution or motivation present. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normative judgement on the need to take on action motivated by the common good. </t>
   </si>
 </sst>
 </file>
@@ -657,11 +630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +642,7 @@
     <col min="1" max="1" width="35.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,395 +656,353 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
+      <c r="B30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
